--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>001171</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>工银瑞信养老产业股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>93.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>010090</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>中信建投医药健康混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>65.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>010091</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>中信建投医药健康混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>65.76</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010685</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009364</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009365</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>290005</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰信优势增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>79.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001417</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富医疗服务灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001717</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003284</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮医药健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>163001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>168301</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003284</t>
+          <t>001717</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮医药健康灵活配置混合</t>
+          <t>工银瑞信前沿医疗股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.35</t>
+          <t>73.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3569</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003333</t>
+          <t>000831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信智选成长灵活配置混合</t>
+          <t>工银瑞信医疗保健行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>38.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161035</t>
+          <t>000960</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证医药主题指数增强型（LOF）</t>
+          <t>招商医药健康产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>35.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000960</t>
+          <t>000452</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商医药健康产业股票</t>
+          <t>南方医药保健灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>26.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001171</t>
+          <t>070099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信养老产业股票</t>
+          <t>嘉实优质企业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>001171</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数A</t>
+          <t>工银瑞信养老产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006569</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数C</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000452</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方医药保健灵活配置混合</t>
+          <t>创金合信医疗保健行业股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>290005</t>
+          <t>009364</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰信优势增长混合</t>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>77.78</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000831</t>
+          <t>000870</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信医疗保健行业股票</t>
+          <t>嘉实新收益灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000870</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实新收益灵活配置混合</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>070099</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实优质企业混合</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001550</t>
+          <t>163001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 A</t>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001551</t>
+          <t>001550</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 C</t>
+          <t>天弘中证医药100指数型发起式 A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001717</t>
+          <t>161035</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票A</t>
+          <t>富国中证医药主题指数增强型（LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010685</t>
+          <t>001551</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票C</t>
+          <t>天弘中证医药100指数型发起式 C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>010685</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>工银瑞信前沿医疗股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>290005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>泰信优势增长混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>009365</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009364</t>
+          <t>003284</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
+          <t>中邮医药健康灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009365</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>163001</t>
+          <t>006569</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+          <t>国联安中证医药100指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,1464 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1586</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8389</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6142</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3536,4 +3537,3252 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9342</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5691</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4929</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2653</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2455</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0193</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8878</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8839</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7985</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7838</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7275</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6955</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6874</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6323</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6785,4 +6786,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6794,7 +6795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6805,17 +6806,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6825,14 +6846,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.57</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6841,14 +6884,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.63</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6857,14 +6922,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.98</v>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6873,13 +6960,1215 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9106</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5760</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3374</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8067,7 +8068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8078,17 +8079,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8098,14 +8119,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.37</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8114,14 +8157,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.57</v>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8130,14 +8195,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.63</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8146,14 +8233,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.98</v>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1843</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8162,13 +8271,3167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11314,7 +11315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11325,17 +11326,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11345,14 +11366,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.63</v>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -11361,14 +11404,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.37</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -11377,14 +11442,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>84</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.57</v>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -11393,14 +11480,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.63</v>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -11409,14 +11518,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.98</v>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -11425,13 +11556,1627 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8975</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>16.26</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>22.63</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>14.37</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>42.57</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
-        <v>21.63</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>12.98</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.02</v>
       </c>
     </row>
@@ -600,6 +617,1236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7866</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2327,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5573,7 +6820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6845,7 +8092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10093,7 +11340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11553,7 +12800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12445,7 +13692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603127-昭衍新药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>6.26</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>16.26</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>22.63</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>14.37</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>42.57</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>21.63</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>12.98</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5333</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014588</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014587</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3574,7 +5867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6820,7 +9113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8092,7 +10385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11340,7 +13633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12800,7 +15093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13690,744 +15983,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001717</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>68.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9924</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001417</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富医疗服务灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>54.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4933</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001171</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信养老产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3413</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0231</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9223</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2765</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009364</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2273</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1665</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010090</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1440</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>163001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1385</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010685</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003284</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮医药健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009365</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>290005</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰信优势增长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010091</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>65.76</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>168301</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>